--- a/exceedence_bioenergy_new.xlsx
+++ b/exceedence_bioenergy_new.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beste\Documents\GitHub\TCRiskIndia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C40337-4E0C-4FA4-BB72-F796D162A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>5</t>
   </si>
@@ -38,13 +44,103 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>Plant / Project name</t>
+  </si>
+  <si>
+    <t>Aland Sugar power station</t>
+  </si>
+  <si>
+    <t>Asmoli power station</t>
+  </si>
+  <si>
+    <t>Daurala Sugar Works power station</t>
+  </si>
+  <si>
+    <t>Dcm Hariawan Sugar power station</t>
+  </si>
+  <si>
+    <t>Dhampur power station</t>
+  </si>
+  <si>
+    <t>Gularia Mill power station</t>
+  </si>
+  <si>
+    <t>Jay Mahesh power station</t>
+  </si>
+  <si>
+    <t>Kodungaiyur power station</t>
+  </si>
+  <si>
+    <t>Lokmangal Sugar Ethanol power station</t>
+  </si>
+  <si>
+    <t>Panchganga power station</t>
+  </si>
+  <si>
+    <t>Parbhani Gangakhed power station</t>
+  </si>
+  <si>
+    <t>Perungudi power station</t>
+  </si>
+  <si>
+    <t>Pravara Nagar Mill power station</t>
+  </si>
+  <si>
+    <t>Sakthi Mill power station</t>
+  </si>
+  <si>
+    <t>Sakthinagar Sugar Mill power station</t>
+  </si>
+  <si>
+    <t>Seksaria Biswan power station</t>
+  </si>
+  <si>
+    <t>Shirol Cogen power station</t>
+  </si>
+  <si>
+    <t>Shri Sai Priya Sugars power station</t>
+  </si>
+  <si>
+    <t>Warana Sugar power station</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Bioenergy</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +155,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +203,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -107,13 +220,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +272,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +341,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,530 +517,909 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="34.109375" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>58335000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>23.99999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>17.462199999999999</v>
+      </c>
+      <c r="I2">
+        <v>76.565100000000001</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>23.999999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>68850000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>28.706</v>
+      </c>
+      <c r="I3">
+        <v>78.544600000000003</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>77612500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>29.121700000000001</v>
+      </c>
+      <c r="I4">
+        <v>77.7029</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>51325000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>27.5305</v>
+      </c>
+      <c r="I5">
+        <v>80.154200000000003</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>112662500</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>29.2895</v>
+      </c>
+      <c r="I6">
+        <v>78.515600000000006</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>53077500</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28.231100000000001</v>
+      </c>
+      <c r="I7">
+        <v>80.633399999999995</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>84622500</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
       <c r="H8">
+        <v>19.146999999999998</v>
+      </c>
+      <c r="I8">
+        <v>76.268900000000002</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
+        <v>51325000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>13.136200000000001</v>
+      </c>
+      <c r="I9">
+        <v>80.2684</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>24.48739797143913</v>
       </c>
-      <c r="C9">
-        <v>33.69346574694274</v>
-      </c>
-      <c r="D9">
-        <v>37.56690205605897</v>
-      </c>
-      <c r="E9">
-        <v>42.99999999999999</v>
-      </c>
-      <c r="F9">
-        <v>49.9454908646133</v>
-      </c>
-      <c r="G9">
-        <v>70.99999999999999</v>
-      </c>
-      <c r="H9">
+      <c r="L9">
+        <v>33.693465746942742</v>
+      </c>
+      <c r="M9">
+        <v>37.566902056058971</v>
+      </c>
+      <c r="N9">
+        <v>42.999999999999993</v>
+      </c>
+      <c r="O9">
+        <v>49.945490864613298</v>
+      </c>
+      <c r="P9">
+        <v>70.999999999999986</v>
+      </c>
+      <c r="Q9">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>54830000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>17.447399999999998</v>
+      </c>
+      <c r="I10">
+        <v>75.716099999999997</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>19</v>
       </c>
-      <c r="G10">
-        <v>23.99999999999999</v>
-      </c>
-      <c r="H10">
+      <c r="P10">
+        <v>23.999999999999989</v>
+      </c>
+      <c r="Q10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+        <v>51325000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>16.7668</v>
+      </c>
+      <c r="I11">
+        <v>74.135599999999997</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="N11">
         <v>26</v>
       </c>
-      <c r="F11">
-        <v>34</v>
-      </c>
-      <c r="G11">
-        <v>38.99999999999999</v>
-      </c>
-      <c r="H11">
-        <v>47.00000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="O11">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <v>38.999999999999993</v>
+      </c>
+      <c r="Q11">
+        <v>47.000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>86375000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>18.904800000000002</v>
+      </c>
+      <c r="I12">
+        <v>76.727500000000006</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>23.87134465823321</v>
-      </c>
-      <c r="C13">
-        <v>32.52399970978529</v>
-      </c>
-      <c r="D13">
-        <v>37.17746178163321</v>
-      </c>
-      <c r="E13">
-        <v>42.47202481345381</v>
-      </c>
-      <c r="F13">
-        <v>49.99999999999999</v>
-      </c>
-      <c r="G13">
+        <v>51325000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>12.9556</v>
+      </c>
+      <c r="I13">
+        <v>80.226900000000001</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>23.871344658233209</v>
+      </c>
+      <c r="L13">
+        <v>32.523999709785294</v>
+      </c>
+      <c r="M13">
+        <v>37.177461781633212</v>
+      </c>
+      <c r="N13">
+        <v>42.472024813453807</v>
+      </c>
+      <c r="O13">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="P13">
         <v>73</v>
       </c>
-      <c r="H13">
+      <c r="Q13">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+        <v>51325000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>19.571300000000001</v>
+      </c>
+      <c r="I14">
+        <v>74.501599999999996</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>19</v>
       </c>
-      <c r="E14">
-        <v>23.99999999999999</v>
-      </c>
-      <c r="F14">
-        <v>32.00000000000001</v>
-      </c>
-      <c r="G14">
-        <v>34.07693872609015</v>
-      </c>
-      <c r="H14">
+      <c r="N14">
+        <v>23.999999999999989</v>
+      </c>
+      <c r="O14">
+        <v>32.000000000000007</v>
+      </c>
+      <c r="P14">
+        <v>34.076938726090148</v>
+      </c>
+      <c r="Q14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>20.69145452442095</v>
-      </c>
-      <c r="D15">
-        <v>24.4698700985902</v>
-      </c>
-      <c r="E15">
-        <v>28.47058411905092</v>
-      </c>
-      <c r="F15">
+        <v>60087500</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>9.8256999999999994</v>
+      </c>
+      <c r="I15">
+        <v>78.364500000000007</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>20.691454524420951</v>
+      </c>
+      <c r="M15">
+        <v>24.469870098590199</v>
+      </c>
+      <c r="N15">
+        <v>28.470584119050919</v>
+      </c>
+      <c r="O15">
         <v>32.39343247740986</v>
       </c>
-      <c r="G15">
-        <v>34</v>
-      </c>
-      <c r="H15">
+      <c r="P15">
+        <v>34</v>
+      </c>
+      <c r="Q15">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>19.54370946934544</v>
-      </c>
-      <c r="D16">
-        <v>23.83354251959702</v>
-      </c>
-      <c r="E16">
+        <v>54830000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>11.474600000000001</v>
+      </c>
+      <c r="I16">
+        <v>77.572000000000003</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>19.543709469345441</v>
+      </c>
+      <c r="M16">
+        <v>23.833542519597021</v>
+      </c>
+      <c r="N16">
         <v>27</v>
       </c>
-      <c r="F16">
-        <v>30.44560542724889</v>
-      </c>
-      <c r="G16">
-        <v>33.07603772089752</v>
-      </c>
-      <c r="H16">
+      <c r="O16">
+        <v>30.445605427248889</v>
+      </c>
+      <c r="P16">
+        <v>33.076037720897517</v>
+      </c>
+      <c r="Q16">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>54830000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>27.484000000000002</v>
+      </c>
+      <c r="I17">
+        <v>80.995999999999995</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+        <v>61840000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>16.749099999999999</v>
+      </c>
+      <c r="I18">
+        <v>74.584900000000005</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>18</v>
       </c>
-      <c r="E18">
-        <v>23.99999999999999</v>
-      </c>
-      <c r="F18">
+      <c r="N18">
+        <v>23.999999999999989</v>
+      </c>
+      <c r="O18">
         <v>30</v>
       </c>
-      <c r="G18">
+      <c r="P18">
         <v>37</v>
       </c>
-      <c r="H18">
-        <v>45.00000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="Q18">
+        <v>45.000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+        <v>112662500</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>16.574100000000001</v>
+      </c>
+      <c r="I19">
+        <v>75.208500000000001</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>19.20662371824195</v>
       </c>
-      <c r="F19">
+      <c r="O19">
         <v>22.29954338006149</v>
       </c>
-      <c r="G19">
-        <v>34</v>
-      </c>
-      <c r="H19">
+      <c r="P19">
+        <v>34</v>
+      </c>
+      <c r="Q19">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+        <v>75860000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>16.862200000000001</v>
+      </c>
+      <c r="I20">
+        <v>74.198400000000007</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>19.48108885531456</v>
       </c>
-      <c r="E20">
+      <c r="N20">
         <v>26</v>
       </c>
-      <c r="F20">
+      <c r="O20">
         <v>33</v>
       </c>
-      <c r="G20">
-        <v>38.99999999999999</v>
-      </c>
-      <c r="H20">
+      <c r="P20">
+        <v>38.999999999999993</v>
+      </c>
+      <c r="Q20">
         <v>44</v>
       </c>
     </row>
